--- a/db-videogames-tabelle.xlsx
+++ b/db-videogames-tabelle.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>videogiochi</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>premi</t>
+  </si>
+  <si>
+    <t>videogioco_premio</t>
+  </si>
+  <si>
+    <t>premio_id INT NON NULL</t>
   </si>
 </sst>
 </file>
@@ -889,7 +895,7 @@
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B73" s="10"/>
     </row>
@@ -906,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
